--- a/excel/repeatAfterMe.xlsx
+++ b/excel/repeatAfterMe.xlsx
@@ -20,7 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">Reapeat ed after the fire comes the fall; here we go. Still what when where why?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reapeat ed choose your cheese. Aslkjdfal;skjpoiwerkln -09098-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reapeat ed fleas drive cars that are Obrigado; choiw run it</t>
+  </si>
   <si>
     <t xml:space="preserve">Reapeat ed</t>
   </si>
@@ -128,13 +137,13 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -144,27 +153,27 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
